--- a/metadata/docs/Errors-inYieldBooksandGuides.xlsx
+++ b/metadata/docs/Errors-inYieldBooksandGuides.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rothamsted.sharepoint.com/sites/e-RA/Shared Documents/Data-docs repository/metadata/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{6862E14C-81C5-49CD-9F5A-2F1983504D7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F6D007AE-F466-4F4F-9235-F19963C4BACA}"/>
+  <xr:revisionPtr revIDLastSave="224" documentId="8_{6862E14C-81C5-49CD-9F5A-2F1983504D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4294478-0A19-408B-9EAE-557800F9D7F5}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="660" windowWidth="16920" windowHeight="8840" activeTab="1" xr2:uid="{7930A349-18E1-42FE-837B-98F8AC492708}"/>
+    <workbookView xWindow="720" yWindow="45" windowWidth="19650" windowHeight="12000" xr2:uid="{7930A349-18E1-42FE-837B-98F8AC492708}"/>
   </bookViews>
   <sheets>
-    <sheet name="Information" sheetId="2" r:id="rId1"/>
-    <sheet name="errataData" sheetId="1" r:id="rId2"/>
+    <sheet name="errataData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Page</t>
   </si>
@@ -72,120 +71,6 @@
     <t>Incorrect fertilizer treatments shown for maize on plots 17 and 18. Should read 'Maize received N3 ½(PK Mg) on both plots 17 and 18'</t>
   </si>
   <si>
-    <t>Not currently in e-Radoc</t>
-  </si>
-  <si>
-    <t>README</t>
-  </si>
-  <si>
-    <t>Title:</t>
-  </si>
-  <si>
-    <t>Description:</t>
-  </si>
-  <si>
-    <t>http://www.era.rothamsted.ac.uk/</t>
-  </si>
-  <si>
-    <t>Resource descriptions:</t>
-  </si>
-  <si>
-    <t>resource_description</t>
-  </si>
-  <si>
-    <t>Conditions of Use:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rights Holder: </t>
-  </si>
-  <si>
-    <t>Rothamsted Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">License: </t>
-  </si>
-  <si>
-    <t>This dataset is available under a Creative Commons Attribution Licence (4.0). https://creativecommons.org/licenses/by/4.0/</t>
-  </si>
-  <si>
-    <t>Cite this Dataset:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>YOU MUST CITE AS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Rothamsted Research (2021). Broadbalk Wheat Experiment annual grain and straw yields 1852-1925. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Electronic Rothamsted Archive, Rothamsted Research, Harpenden, UK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="8" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10.23637/rbk1-1796346264-1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Conditions of use: </t>
-  </si>
-  <si>
-    <t>Rothamsted relies on the integrity of users to ensure that Rothamsted Research receives suitable acknowledgment as being the originators of these data. This enables us to monitor the use of each dataset and to demonstrate their value. Please send us a link to any publication that uses this Rothamsted data.</t>
-  </si>
-  <si>
-    <t>Supplementary materials:</t>
-  </si>
-  <si>
-    <t>Resource name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link </t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Errata in Guides and Yields</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This file descibes the errors found in the Yield Books and Guides. </t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -219,12 +104,6 @@
     <t>http://www.era.rothamsted.ac.uk/eradoc/article/Guide1967-13-21</t>
   </si>
   <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Yields of the Field Experiments 1995</t>
   </si>
   <si>
@@ -243,9 +122,6 @@
     <t>Woburn Ley Arable</t>
   </si>
   <si>
-    <t xml:space="preserve">From 1988 rotations AF abd AB are replaced by AM and Abe respectively, should by 1998 not 1988. </t>
-  </si>
-  <si>
     <t>https://doi.org/10.23637/ERADOC-1-217</t>
   </si>
   <si>
@@ -262,13 +138,64 @@
   </si>
   <si>
     <t>http://www.era.rothamsted.ac.uk/eradoc/article/YieldBook2008-34-46</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.23637/ERADOC-1-258</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.23637/ERADOC-1-259</t>
+  </si>
+  <si>
+    <t>http://www.era.rothamsted.ac.uk/eradoc/OCR/YieldBook2001-5-11</t>
+  </si>
+  <si>
+    <t>http://www.era.rothamsted.ac.uk/eradoc/OCR/YieldBook2002-6-13-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 1988 rotations AF abd AB are replaced by AM and Abe respectively, should be 1998 not 1988. </t>
+  </si>
+  <si>
+    <t>Yields of the Field Experiments 1976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect grain and straw yield for last five A_H PER plots, as wrong plot length was used to calculate yields, so yields are 1.5 times too high. Grain yield fro A_H PER should read 1.83, 3.02, 4.74, 2.31, 2.09, 2.84, 1.80, 2.71. Straw yield for A_H PER should read: 1.72, 2.69, 4.11, 2.24, 1.93, 3.33, 3.11, 2.82. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.23637/ERADOC-1-15</t>
+  </si>
+  <si>
+    <t>Yields of the Field Experiments 1993</t>
+  </si>
+  <si>
+    <t> https://doi.org/10.23637/ERADOC-1-48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect corrective K application to plot AB, No FYM. Should be 375 not 275. </t>
+  </si>
+  <si>
+    <t>Yields of the Field Experiments 2013</t>
+  </si>
+  <si>
+    <t> https://doi.org/10.23637/ERADOC-1-223</t>
+  </si>
+  <si>
+    <t>Incorrrect corrective K table, carried over from 2012. Actual amounts applied: Abe (53/54) 140 (-d), 180 (d); AO (63/64)200 (d), 160 (-d)</t>
+  </si>
+  <si>
+    <t>Yields of the Field Experiments 2014</t>
+  </si>
+  <si>
+    <t> https://doi.org/10.23637/ERADOC-1-224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing information from corrective K table. LLc/Abe missing, should read 310 (no FYM), 270 (FYM res), plots 21 and 22. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,110 +227,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="20"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -411,170 +249,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -591,62 +275,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3429000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>342899</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>5095875</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38409</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4CAEFDF-0BE5-4025-93A2-0BFC228E26D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9096375" y="342899"/>
-          <a:ext cx="1666875" cy="2029135"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -945,274 +573,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF71A31E-62BA-4872-A1CB-FA6EC6C1A00B}">
-  <dimension ref="A1:C43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14337DFB-4F60-4A6A-81C6-5E0B47140016}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.81640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="42.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="86.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="11"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="11"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" s="12"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" s="13"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="12"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="14" spans="1:3" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-    </row>
-    <row r="26" spans="1:3" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="24"/>
-    </row>
-    <row r="28" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="26"/>
-    </row>
-    <row r="29" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="32"/>
-    </row>
-    <row r="30" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="33"/>
-    </row>
-    <row r="31" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="18"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="18"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="18"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="18"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="18"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="18"/>
-    </row>
-    <row r="40" spans="1:3" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B27:C27" r:id="rId1" display="Rothamsted Research" xr:uid="{79B284EC-1417-4E39-BE59-A70E4A6E9376}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{631C77E5-04B4-4C51-9763-59CCE7783420}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14337DFB-4F60-4A6A-81C6-5E0B47140016}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="58.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="39.81640625" customWidth="1"/>
-    <col min="6" max="6" width="69.26953125" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="69.28515625" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1221,16 +603,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1970</v>
       </c>
@@ -1244,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1970</v>
       </c>
@@ -1267,179 +649,293 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1995</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1999</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2000</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1976</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1993</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2013</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C8">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="2" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2014</v>
+      </c>
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="C14">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2007</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="F14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
         <v>51</v>
       </c>
-      <c r="C9">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{C213E016-F56D-4C80-B6B4-A4889B51D9D0}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{C213E016-F56D-4C80-B6B4-A4889B51D9D0}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{5EF01A92-9BC9-49F9-8A5D-14F889C190F1}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{EA3C641A-9249-4EEB-A00F-B4A8FF7DB06E}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{CE9F8D9E-951C-4445-9FB5-8ADBD0AD0CA3}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{AAD9C853-06AA-40C8-88A6-5001D5F970C1}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{EA3C641A-9249-4EEB-A00F-B4A8FF7DB06E}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{CE9F8D9E-951C-4445-9FB5-8ADBD0AD0CA3}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{AAD9C853-06AA-40C8-88A6-5001D5F970C1}"/>
     <hyperlink ref="E3" r:id="rId6" xr:uid="{7ACCB800-3829-40E3-AE43-BBB4796E52AA}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{103E3B86-0B88-4474-A35E-638D6CFEB532}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{0F87CC32-E0B5-4025-8C79-6C496441CA15}"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://doi.org/10.23637/ERADOC-1-218" xr:uid="{E5259676-6E49-4333-B994-D9FBBD35A361}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{103E3B86-0B88-4474-A35E-638D6CFEB532}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{0F87CC32-E0B5-4025-8C79-6C496441CA15}"/>
+    <hyperlink ref="E12" r:id="rId9" display="https://doi.org/10.23637/ERADOC-1-218" xr:uid="{E5259676-6E49-4333-B994-D9FBBD35A361}"/>
+    <hyperlink ref="E7" r:id="rId10" xr:uid="{9C5CD0AE-7439-42F9-B270-0C054D8A0197}"/>
+    <hyperlink ref="E8" r:id="rId11" xr:uid="{8D7524C5-D50C-40AE-A609-B468599CC743}"/>
+    <hyperlink ref="E9" r:id="rId12" xr:uid="{D1C8E093-D1C7-4CDD-A05F-F98B20B1EAAB}"/>
+    <hyperlink ref="E10" r:id="rId13" display="https://doi.org/10.23637/ERADOC-1-48" xr:uid="{9C7A0700-941C-4F5F-99AD-6F8AF618A2C5}"/>
+    <hyperlink ref="F10" r:id="rId14" display="https://doi.org/10.23637/ERADOC-1-48" xr:uid="{6309F84E-B276-4B0F-AF50-39101FB5B39B}"/>
+    <hyperlink ref="F9" r:id="rId15" xr:uid="{6CF0264E-3C1F-4A77-91BF-6408987286BE}"/>
+    <hyperlink ref="E13" r:id="rId16" display="https://doi.org/10.23637/ERADOC-1-223" xr:uid="{D8F807C4-CE9C-4943-B427-B81D8931382F}"/>
+    <hyperlink ref="F13" r:id="rId17" display="https://doi.org/10.23637/ERADOC-1-223" xr:uid="{44F22E6F-0E36-431D-9CC4-46FD2C671CAE}"/>
+    <hyperlink ref="E14" r:id="rId18" display="https://doi.org/10.23637/ERADOC-1-224" xr:uid="{FDF30E5E-B45C-4036-BE8D-407B1D64F6BF}"/>
+    <hyperlink ref="F14" r:id="rId19" display="https://doi.org/10.23637/ERADOC-1-224" xr:uid="{8D068B07-1792-48C8-A0C7-CF7FBE10F554}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -1453,6 +949,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100622C72A1DD75CA4D87E39FE37B04C3D3" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a181992610faed44b90126dc36e4bac8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6584b4ba-af75-4ac8-8379-7172592f8823" xmlns:ns3="a9e4a452-7199-439f-b4c2-3c6fe4528eb3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eb744a54a586913629e94f53228026f2" ns2:_="" ns3:_="">
     <xsd:import namespace="6584b4ba-af75-4ac8-8379-7172592f8823"/>
@@ -1669,12 +1171,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{721F1A8F-A59F-46DB-B023-5B9F808DB43B}">
   <ds:schemaRefs>
@@ -1684,6 +1180,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD2F35DB-1528-49AA-A574-37B6C0F2DE74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D666601-861F-491B-8907-5443A6932C2C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1700,13 +1205,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD2F35DB-1528-49AA-A574-37B6C0F2DE74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>